--- a/CRA/Facture_OpcaDefi_FCH_201702.xlsx
+++ b/CRA/Facture_OpcaDefi_FCH_201702.xlsx
@@ -125,12 +125,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Coût estimé</t>
-  </si>
-  <si>
-    <t>opcadefi022017/f1</t>
-  </si>
-  <si>
     <t>Facture relative au relevé d'activité pour la période</t>
   </si>
   <si>
@@ -144,6 +138,12 @@
   </si>
   <si>
     <t>Taux journalier</t>
+  </si>
+  <si>
+    <t>opcadefi022017/f2</t>
+  </si>
+  <si>
+    <t>Montant facturé</t>
   </si>
 </sst>
 </file>
@@ -154,7 +154,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="d\.m\.yyyy;@"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-407]"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -591,7 +591,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -614,6 +614,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>67826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E0F0FCD-53C3-49BE-B485-83EA46C02554}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10364351"/>
+          <a:ext cx="6296025" cy="8780898"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -915,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,7 +1007,7 @@
       </c>
       <c r="F2" s="40"/>
       <c r="G2" s="42" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1108,21 +1163,21 @@
       <c r="B21" s="55"/>
       <c r="C21" s="55"/>
       <c r="D21" s="56" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E21" s="57" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F21" s="58"/>
       <c r="G21" s="59" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="45"/>
@@ -1140,7 +1195,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="50" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B23" s="51">
         <v>42751</v>
@@ -1153,7 +1208,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="52" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B24" s="53">
         <v>42794</v>
@@ -1276,5 +1331,6 @@
   </sheetData>
   <pageMargins left="0.625" right="0.56372549019607843" top="0.48958333333333331" bottom="0.28125" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/CRA/Facture_OpcaDefi_FCH_201702.xlsx
+++ b/CRA/Facture_OpcaDefi_FCH_201702.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Florian CHAUMEIL</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>Montant facturé</t>
+  </si>
+  <si>
+    <t>BC/DSPC/2017/03/22/01</t>
+  </si>
+  <si>
+    <t>ref bon de commande</t>
   </si>
 </sst>
 </file>
@@ -970,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,10 +1043,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C7" s="5"/>
       <c r="E7" s="8" t="s">
@@ -1051,12 +1057,12 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5"/>
       <c r="E8" s="8" t="s">
         <v>14</v>
       </c>
@@ -1065,12 +1071,12 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="5">
-        <v>42751</v>
-      </c>
-      <c r="C9" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6"/>
       <c r="E9" s="8" t="s">
         <v>9</v>
       </c>
@@ -1079,10 +1085,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="5">
-        <v>42794</v>
+        <v>42751</v>
       </c>
       <c r="C10" s="4"/>
       <c r="E10" s="30" t="s">
@@ -1094,12 +1100,16 @@
       </c>
       <c r="L10" s="39"/>
     </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="5">
+        <v>42794</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
       <c r="E12" s="7" t="s">
         <v>18</v>
       </c>
@@ -1107,8 +1117,8 @@
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>0</v>
+      <c r="A13" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1120,11 +1130,9 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="E14" s="8" t="s">
         <v>20</v>
@@ -1136,10 +1144,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>26</v>
       </c>
       <c r="C15" s="3"/>
       <c r="E15" s="8" t="s">
@@ -1151,6 +1159,13 @@
       <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="3"/>
       <c r="G16" s="20"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">

--- a/CRA/Facture_OpcaDefi_FCH_201702.xlsx
+++ b/CRA/Facture_OpcaDefi_FCH_201702.xlsx
@@ -146,10 +146,10 @@
     <t>Montant facturé</t>
   </si>
   <si>
-    <t>BC/DSPC/2017/03/22/01</t>
-  </si>
-  <si>
     <t>ref bon de commande</t>
+  </si>
+  <si>
+    <t>BC/DSPC/2017/03/31/01</t>
   </si>
 </sst>
 </file>
@@ -977,7 +977,7 @@
   <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,10 +1043,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="C7" s="5"/>
       <c r="E7" s="8" t="s">
